--- a/Data/Output/out_put.xlsx
+++ b/Data/Output/out_put.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Suresh\Documents\Google_SearchDataExtractor\Data\Output\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677DBF34-72ED-44A7-B7C0-48B909ABD846}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7804786-792D-4C15-96DB-3D13F9B714B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="88">
   <si>
     <t>I am working as a manual tester. I want to switch to RPA ...</t>
   </si>
@@ -149,40 +149,16 @@
     <t>https://www.quora.com/What-are-the-prerequisites-to-learn-UiPath</t>
   </si>
   <si>
-    <t>Where can I learn both UiPath and automation anywhere ...</t>
-  </si>
-  <si>
-    <t>https://www.quora.com/Where-can-I-learn-both-UiPath-and-automation-anywhere-systematically</t>
-  </si>
-  <si>
     <t>What is the best way to learn Uipath?</t>
   </si>
   <si>
     <t>https://www.quora.com/What-is-the-best-way-to-learn-Uipath</t>
   </si>
   <si>
-    <t>Why should you go for RPA with UiPath certification training?</t>
-  </si>
-  <si>
-    <t>https://www.quora.com/Why-should-you-go-for-RPA-with-UiPath-certification-training</t>
-  </si>
-  <si>
     <t>What are the features of UiPath?</t>
   </si>
   <si>
     <t>https://www.quora.com/What-are-the-features-of-UiPath</t>
-  </si>
-  <si>
-    <t>Advantages of Using UiPath for Web Application Testing</t>
-  </si>
-  <si>
-    <t>https://www.quora.com/Is-it-advisable-to-automate-web-application-testing-using-UiPath</t>
-  </si>
-  <si>
-    <t>What are the different types of UIPath certification?</t>
-  </si>
-  <si>
-    <t>https://www.quora.com/What-are-the-different-types-of-UIPath-certification</t>
   </si>
   <si>
     <t>Which is the best to learn Uipath online?</t>
@@ -793,16 +769,34 @@
 Overall, UiPath Academy's free RPA training is an excellent resource for anyone looking to enter the field of RPA or enhance their existing skills.</t>
   </si>
   <si>
-    <t>What is the cost of a UiPath certification?</t>
-  </si>
-  <si>
-    <t>https://www.quora.com/What-is-the-cost-of-a-UiPath-certification</t>
-  </si>
-  <si>
-    <t>Which is the best Udemy course to learn Uipath?</t>
-  </si>
-  <si>
-    <t>https://www.quora.com/Which-is-the-best-Udemy-course-to-learn-Uipath</t>
+    <t>What do you think of UIPath Academy's free RPA training?</t>
+  </si>
+  <si>
+    <t>https://www.quora.com/What-do-you-think-of-UIPath-Academys-free-RPA-training</t>
+  </si>
+  <si>
+    <t>What is UiPath?</t>
+  </si>
+  <si>
+    <t>https://www.quora.com/What-is-UiPath</t>
+  </si>
+  <si>
+    <t>How to get a job at UiPath RPA</t>
+  </si>
+  <si>
+    <t>https://www.quora.com/How-can-I-get-a-job-at-UiPath-RPA</t>
+  </si>
+  <si>
+    <t>Why Did RPA tool UiPath has become so popular, what ...</t>
+  </si>
+  <si>
+    <t>https://www.quora.com/Why-Did-RPA-tool-UiPath-has-become-so-popular-what-does-it-provides-compared-to-competitors-like-automation-Anywhere-or-Blueprism</t>
+  </si>
+  <si>
+    <t>How good is the UiPath S/W company?</t>
+  </si>
+  <si>
+    <t>https://www.quora.com/How-good-is-the-UiPath-S-W-company</t>
   </si>
 </sst>
 </file>
@@ -1160,326 +1154,326 @@
     </row>
     <row r="2" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>2</v>
+        <v>78</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>79</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>81</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="B7" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="B8" t="s">
-        <v>55</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="B13" t="s">
-        <v>31</v>
+        <v>7</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="B14" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>68</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>20</v>
+        <v>82</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>83</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="B17" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>72</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>39</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>73</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>74</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B21" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>75</v>
+        <v>67</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="B22" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>77</v>
+        <v>69</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="B24" t="s">
-        <v>43</v>
+        <v>29</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>78</v>
+        <v>70</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>44</v>
+        <v>26</v>
       </c>
       <c r="B25" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>79</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>40</v>
+        <v>14</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>46</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>86</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>87</v>
+        <v>37</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>50</v>
+        <v>86</v>
       </c>
       <c r="B29" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>89</v>
+        <v>37</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="409.5" x14ac:dyDescent="0.35">
       <c r="C31" s="1" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
